--- a/biology/Médecine/Francisco_Enríquez_de_Villacorta/Francisco_Enríquez_de_Villacorta.xlsx
+++ b/biology/Médecine/Francisco_Enríquez_de_Villacorta/Francisco_Enríquez_de_Villacorta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Francisco_Enr%C3%ADquez_de_Villacorta</t>
+          <t>Francisco_Enríquez_de_Villacorta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francisco Enríquez de Villacorta (né le 18 octobre 1616 à Alcalá de Henares et mort en 1680 dans la même ville) est médecin et professeur d'université espagnol.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Francisco_Enr%C3%ADquez_de_Villacorta</t>
+          <t>Francisco_Enríquez_de_Villacorta</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient un doctorat en médecine à l'université d'Alcalá de Henares, et succède à Pedro Miguel de Heredia à la chaire de médecine de l'université. Au cours de la seconde moitié du XVIIe siècle, il devient une des figures de proue du galénisme en Espagne.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Francisco_Enr%C3%ADquez_de_Villacorta</t>
+          <t>Francisco_Enríquez_de_Villacorta</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Opera medica (1670)
 Laureae doctoralis (1690) [lire en ligne]</t>
